--- a/code/exmp_notebooks/pvtsim_comparison.xlsx
+++ b/code/exmp_notebooks/pvtsim_comparison.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6DE559-01CA-4FAA-A859-82AE727E4679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7285EF1-56DD-4D3A-BEDE-718BE74968C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="105" windowWidth="20490" windowHeight="10785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>Pressure</t>
   </si>
@@ -55,6 +55,216 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>-1,64119996331632</t>
+  </si>
+  <si>
+    <t>0,0043900001252041</t>
+  </si>
+  <si>
+    <t>-5,20000009760261</t>
+  </si>
+  <si>
+    <t>-5,79000020861626</t>
+  </si>
+  <si>
+    <t>-6,34999918445945</t>
+  </si>
+  <si>
+    <t>-7,17999981731176</t>
+  </si>
+  <si>
+    <t>-6,48999999836087</t>
+  </si>
+  <si>
+    <t>-6,20000023394823</t>
+  </si>
+  <si>
+    <t>-5,12000002555549</t>
+  </si>
+  <si>
+    <t>1,39000006724149</t>
+  </si>
+  <si>
+    <t>6,70455672070384</t>
+  </si>
+  <si>
+    <t>0,00967065656252089</t>
+  </si>
+  <si>
+    <t>10,8</t>
+  </si>
+  <si>
+    <t>0,00395197198537062</t>
+  </si>
+  <si>
+    <t>14,5242532512546</t>
+  </si>
+  <si>
+    <t>-0,00969491412266507</t>
+  </si>
+  <si>
+    <t>17,5162816855311</t>
+  </si>
+  <si>
+    <t>-0,0227625521679875</t>
+  </si>
+  <si>
+    <t>19,4452831438184</t>
+  </si>
+  <si>
+    <t>-0,0391195919126039</t>
+  </si>
+  <si>
+    <t>22,2926763927937</t>
+  </si>
+  <si>
+    <t>-0,0498093663249165</t>
+  </si>
+  <si>
+    <t>24,9140798395872</t>
+  </si>
+  <si>
+    <t>-0,0588022363977507</t>
+  </si>
+  <si>
+    <t>26,6500664544106</t>
+  </si>
+  <si>
+    <t>-0,0708706794609316</t>
+  </si>
+  <si>
+    <t>27,190368129015</t>
+  </si>
+  <si>
+    <t>-0,0869921531481668</t>
+  </si>
+  <si>
+    <t>27,3367164421082</t>
+  </si>
+  <si>
+    <t>-0,101762186740525</t>
+  </si>
+  <si>
+    <t>25,2766001796722</t>
+  </si>
+  <si>
+    <t>-0,123839847941417</t>
+  </si>
+  <si>
+    <t>24,0101622056961</t>
+  </si>
+  <si>
+    <t>-0,138775407080539</t>
+  </si>
+  <si>
+    <t>24,0172910672426</t>
+  </si>
+  <si>
+    <t>-0,144451786014251</t>
+  </si>
+  <si>
+    <t>22,9316131424904</t>
+  </si>
+  <si>
+    <t>-0,154216541824862</t>
+  </si>
+  <si>
+    <t>20,8647030627728</t>
+  </si>
+  <si>
+    <t>-0,168252405086532</t>
+  </si>
+  <si>
+    <t>18,9198615920544</t>
+  </si>
+  <si>
+    <t>-0,179454549704678</t>
+  </si>
+  <si>
+    <t>16,7843836030364</t>
+  </si>
+  <si>
+    <t>-0,190099408105016</t>
+  </si>
+  <si>
+    <t>14,4737508308887</t>
+  </si>
+  <si>
+    <t>-0,200386619744822</t>
+  </si>
+  <si>
+    <t>11,7368757233024</t>
+  </si>
+  <si>
+    <t>-0,211400531237014</t>
+  </si>
+  <si>
+    <t>8,82964283496142</t>
+  </si>
+  <si>
+    <t>-0,222026875843294</t>
+  </si>
+  <si>
+    <t>5,47392996519804</t>
+  </si>
+  <si>
+    <t>-0,233312819739804</t>
+  </si>
+  <si>
+    <t>2,26462624229491</t>
+  </si>
+  <si>
+    <t>-0,243166667213663</t>
+  </si>
+  <si>
+    <t>-1,33327120382339</t>
+  </si>
+  <si>
+    <t>-0,253833077275194</t>
+  </si>
+  <si>
+    <t>-5,05709668762982</t>
+  </si>
+  <si>
+    <t>-0,264192146891728</t>
+  </si>
+  <si>
+    <t>-8,61047864258289</t>
+  </si>
+  <si>
+    <t>-0,273017762317322</t>
+  </si>
+  <si>
+    <t>-12,5420616817474</t>
+  </si>
+  <si>
+    <t>-0,282751394319348</t>
+  </si>
+  <si>
+    <t>-16,5661841914058</t>
+  </si>
+  <si>
+    <t>-0,292193887834437</t>
+  </si>
+  <si>
+    <t>-20,6734221345186</t>
+  </si>
+  <si>
+    <t>-0,301351662506349</t>
+  </si>
+  <si>
+    <t>-24,8551951986551</t>
+  </si>
+  <si>
+    <t>-0,310228138323873</t>
+  </si>
+  <si>
+    <t>-29,1035051190853</t>
+  </si>
+  <si>
+    <t>-0,318829696718603</t>
   </si>
 </sst>
 </file>
@@ -456,16 +666,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:J101"/>
+  <sheetPr codeName="Лист1" filterMode="1"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="M2" sqref="M2:N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,7 +695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -508,8 +718,14 @@
         <f>(F2-D2)</f>
         <v>5.1551947144190535E-4</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -532,8 +748,14 @@
         <f t="shared" ref="G3:G4" si="0">(F3-D3)</f>
         <v>2.7536099267493341E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -559,8 +781,14 @@
       <c r="J4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -573,8 +801,14 @@
       <c r="E5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -587,8 +821,14 @@
       <c r="E6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -601,8 +841,14 @@
       <c r="E7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -615,8 +861,14 @@
       <c r="E8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -629,8 +881,14 @@
       <c r="E9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -643,8 +901,14 @@
       <c r="E10" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -657,8 +921,14 @@
       <c r="E11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -681,8 +951,14 @@
         <f t="shared" ref="G12:G16" si="1">(F12-D12)</f>
         <v>7.8359899004709632E-4</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -705,8 +981,14 @@
         <f t="shared" si="1"/>
         <v>2.0038335799199558E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -729,8 +1011,14 @@
         <f t="shared" si="1"/>
         <v>4.1386099925091457E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -753,8 +1041,14 @@
         <f t="shared" si="1"/>
         <v>7.5004375650813415E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -777,8 +1071,14 @@
         <f t="shared" si="1"/>
         <v>1.1921095400343695E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -791,8 +1091,14 @@
       <c r="E17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>29</v>
+      </c>
+      <c r="N17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -805,8 +1111,14 @@
       <c r="E18" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -819,8 +1131,14 @@
       <c r="E19" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>33</v>
+      </c>
+      <c r="N19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -833,8 +1151,14 @@
       <c r="E20" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>35</v>
+      </c>
+      <c r="N20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -847,8 +1171,14 @@
       <c r="E21" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M21" t="s">
+        <v>37</v>
+      </c>
+      <c r="N21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -871,8 +1201,14 @@
         <f t="shared" ref="G22:G28" si="2">(F22-D22)</f>
         <v>-1.9429295671926639E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M22" t="s">
+        <v>39</v>
+      </c>
+      <c r="N22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -895,8 +1231,14 @@
         <f t="shared" si="2"/>
         <v>1.3300117295358405E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M23" t="s">
+        <v>41</v>
+      </c>
+      <c r="N23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -919,8 +1261,14 @@
         <f t="shared" si="2"/>
         <v>2.6894260168930373E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>43</v>
+      </c>
+      <c r="N24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -943,8 +1291,14 @@
         <f t="shared" si="2"/>
         <v>4.3957871987387875E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M25" t="s">
+        <v>45</v>
+      </c>
+      <c r="N25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -967,8 +1321,14 @@
         <f t="shared" si="2"/>
         <v>6.6864152238395036E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M26" t="s">
+        <v>47</v>
+      </c>
+      <c r="N26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -991,8 +1351,14 @@
         <f t="shared" si="2"/>
         <v>9.6920359918097887E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M27" t="s">
+        <v>49</v>
+      </c>
+      <c r="N27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1015,8 +1381,14 @@
         <f t="shared" si="2"/>
         <v>1.3643904379801786E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M28" t="s">
+        <v>51</v>
+      </c>
+      <c r="N28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1029,8 +1401,14 @@
       <c r="E29" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M29" t="s">
+        <v>53</v>
+      </c>
+      <c r="N29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1043,8 +1421,14 @@
       <c r="E30" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M30" t="s">
+        <v>55</v>
+      </c>
+      <c r="N30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1057,8 +1441,14 @@
       <c r="E31" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M31" t="s">
+        <v>57</v>
+      </c>
+      <c r="N31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1081,8 +1471,14 @@
         <f t="shared" ref="G32:G39" si="3">(F32-D32)</f>
         <v>-1.1484722864167907E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M32" t="s">
+        <v>59</v>
+      </c>
+      <c r="N32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1105,8 +1501,14 @@
         <f t="shared" si="3"/>
         <v>-1.7111838424668235E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M33" t="s">
+        <v>61</v>
+      </c>
+      <c r="N33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1129,8 +1531,14 @@
         <f t="shared" si="3"/>
         <v>-6.0974333898400346E-5</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M34" t="s">
+        <v>63</v>
+      </c>
+      <c r="N34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1153,8 +1561,14 @@
         <f t="shared" si="3"/>
         <v>1.1214299391184568E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M35" t="s">
+        <v>65</v>
+      </c>
+      <c r="N35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1177,8 +1591,14 @@
         <f t="shared" si="3"/>
         <v>2.3727755529385774E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M36" t="s">
+        <v>67</v>
+      </c>
+      <c r="N36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1201,8 +1621,14 @@
         <f t="shared" si="3"/>
         <v>3.9677305826195663E-3</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M37" t="s">
+        <v>69</v>
+      </c>
+      <c r="N37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1225,8 +1651,14 @@
         <f t="shared" si="3"/>
         <v>6.1519311203603877E-3</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M38" t="s">
+        <v>71</v>
+      </c>
+      <c r="N38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1249,8 +1681,14 @@
         <f t="shared" si="3"/>
         <v>9.3749419025783709E-3</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M39" t="s">
+        <v>73</v>
+      </c>
+      <c r="N39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1263,8 +1701,14 @@
       <c r="E40" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M40" t="s">
+        <v>75</v>
+      </c>
+      <c r="N40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1278,7 +1722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1302,7 +1746,7 @@
         <v>-1.4016755065398456E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1326,7 +1770,7 @@
         <v>-6.9069178354936867E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1350,7 +1794,7 @@
         <v>-4.5053232057483683E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1374,7 +1818,7 @@
         <v>-3.4698319830752666E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1398,7 +1842,7 @@
         <v>-2.8187907448185001E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1422,7 +1866,7 @@
         <v>-2.2100370222233323E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
